--- a/tables/crosstab/crosstab_app_safety/interested VS regulations.xlsx
+++ b/tables/crosstab/crosstab_app_safety/interested VS regulations.xlsx
@@ -426,22 +426,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E2">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>25.31</v>
+        <v>24.75</v>
       </c>
       <c r="G2">
-        <v>36.36</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,19 +452,19 @@
         <v>59</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D3">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E3">
-        <v>14.5</v>
+        <v>14.75</v>
       </c>
       <c r="F3">
-        <v>49.14</v>
+        <v>49.5</v>
       </c>
       <c r="G3">
-        <v>63.64</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,19 +472,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D4">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E4">
-        <v>25.55</v>
+        <v>25.75</v>
       </c>
       <c r="F4">
-        <v>74.45</v>
+        <v>74.25</v>
       </c>
       <c r="G4">
         <v>100</v>
